--- a/3_Results/33_ResultsHTC/htc_spillover_interaction.xlsx
+++ b/3_Results/33_ResultsHTC/htc_spillover_interaction.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + gender + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * prop_began_infected</t>
+          <t>Y1_ik ~ T_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + monthly_income + T_k * gender + T_k * age + T_k * monthly_income + T_k * education + T_k * prop_began_infected</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + gender + age + education + alcohol_weekly + prop_began_infected + prop_male</t>
+          <t>Y1_ik ~ T_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + monthly_income</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + Z2_k + gender + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * prop_began_infected</t>
+          <t>Y1_ik ~ T_k + Z2_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + monthly_income + T_k * gender + T_k * age + T_k * monthly_income + T_k * education + T_k * prop_began_infected</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + Z2_k + gender + age + education + alcohol_weekly + prop_began_infected + prop_male</t>
+          <t>Y1_ik ~ T_k + Z2_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + monthly_income</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.42 (-0.83, 0)</t>
+          <t>-0.41 (-0.83, 0)</t>
         </is>
       </c>
       <c r="E2">
@@ -637,17 +637,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.12 (-0.82, 0.59)</t>
+          <t>-0.03 (-0.63, 0.56)</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="G4">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="H4">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -668,7 +668,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.04 (NA, NA)</t>
+          <t>-0.03 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -690,17 +690,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.37 (-1.49, 2.22)</t>
+          <t>0.08 (-1.29, 1.46)</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="G6">
-        <v>0.9</v>
+        <v>0.49</v>
       </c>
       <c r="H6">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
@@ -721,7 +721,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09 (NA, NA)</t>
+          <t>0.08 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66 (0.43, 1)</t>
+          <t>0.66 (0.44, 1)</t>
         </is>
       </c>
       <c r="E2">
@@ -832,7 +832,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.68 (0.45, 1.04)</t>
+          <t>0.69 (0.45, 1.04)</t>
         </is>
       </c>
       <c r="E3">
@@ -866,17 +866,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.89 (0.44, 1.8)</t>
+          <t>0.97 (0.53, 1.74)</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="G4">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="H4">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -897,7 +897,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.96 (NA, NA)</t>
+          <t>0.97 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -919,17 +919,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.37 (-1.49, 2.22)</t>
+          <t>0.08 (-1.29, 1.46)</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="G6">
-        <v>0.9</v>
+        <v>0.49</v>
       </c>
       <c r="H6">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +950,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09 (NA, NA)</t>
+          <t>0.08 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.42 (-0.83, 0)</t>
+          <t>-0.41 (-0.83, 0)</t>
         </is>
       </c>
       <c r="D2">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.11 (-1.69, -0.54)</t>
+          <t>-1.18 (-1.77, -0.59)</t>
         </is>
       </c>
       <c r="D3">
@@ -1059,7 +1059,7 @@
         <v>0.09</v>
       </c>
       <c r="G3">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.04 (-0.06, -0.02)</t>
+          <t>-0.03 (-0.05, 0)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1099,25 +1099,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.21 (0.35, 2.07)</t>
+          <t>-0.63 (-2.76, 1.49)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.19</v>
+        <v>1.17</v>
       </c>
       <c r="G5">
-        <v>0.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -1128,25 +1128,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-12.17 (-513.93, 489.58)</t>
+          <t>0.03 (-2.02, 2.07)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>65537.64999999999</v>
+        <v>1.09</v>
       </c>
       <c r="G6">
-        <v>256</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7">
@@ -1157,25 +1157,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.37 (0.21, 2.53)</t>
+          <t>-16.18 (-3984.05, 3951.69)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.35</v>
+        <v>4098434.51</v>
       </c>
       <c r="G7">
-        <v>0.59</v>
+        <v>2024.46</v>
       </c>
     </row>
     <row r="8">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationJunior secondary</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.33 (0.32, 2.34)</t>
+          <t>1.19 (0.27, 2.11)</t>
         </is>
       </c>
       <c r="D8">
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G8">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1215,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.86 (-0.05, 1.78)</t>
+          <t>1.43 (0.17, 2.69)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="G9">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
@@ -1244,25 +1244,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.35 (0.18, 0.52)</t>
+          <t>1.38 (0.29, 2.47)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="G10">
-        <v>0.09</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1273,25 +1273,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.75 (0.32, 7.18)</t>
+          <t>0.84 (-0.12, 1.8)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.06</v>
+        <v>0.24</v>
       </c>
       <c r="G11">
-        <v>1.75</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="12">
@@ -1302,25 +1302,286 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.32 (0.15, 0.5)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.11 (-0.17, 0.39)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.44</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
+      </c>
+      <c r="G13">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3.85 (0.42, 7.28)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3.07</v>
+      </c>
+      <c r="G14">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>6.43 (-2.35, 15.21)</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>0.15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>20.05</v>
-      </c>
-      <c r="G12">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6.32 (-2.46, 15.11)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>20.09</v>
+      </c>
+      <c r="G15">
         <v>4.48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>monthly_income1000-4999 pula</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.3 (-1.21, 1.81)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.7</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.59</v>
+      </c>
+      <c r="G16">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>monthly_income200-499 pula</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-0.29 (-2.02, 1.44)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.74</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.78</v>
+      </c>
+      <c r="G17">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monthly_income500-999 pula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.21 (-1.33, 1.74)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.79</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.61</v>
+      </c>
+      <c r="G18">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monthly_income5000-10000 pula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-0.64 (-3.12, 1.84)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.61</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1.6</v>
+      </c>
+      <c r="G19">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monthly_incomeMore than 10000 pula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.67 (-1.86, 3.2)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.61</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.67</v>
+      </c>
+      <c r="G20">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.12 (-1.31, 1.55)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.87</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.53</v>
+      </c>
+      <c r="G21">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1591,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1386,7 +1647,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.66 (0.43, 1)</t>
+          <t>0.66 (0.44, 1)</t>
         </is>
       </c>
       <c r="D2">
@@ -1415,7 +1676,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.33 (0.18, 0.59)</t>
+          <t>0.31 (0.17, 0.55)</t>
         </is>
       </c>
       <c r="D3">
@@ -1428,7 +1689,7 @@
         <v>0.09</v>
       </c>
       <c r="G3">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -1444,11 +1705,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.96 (0.94, 0.98)</t>
+          <t>0.97 (0.95, 1)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1468,25 +1729,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.35 (1.42, 7.9)</t>
+          <t>0.53 (0.06, 4.44)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.19</v>
+        <v>1.17</v>
       </c>
       <c r="G5">
-        <v>0.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -1497,25 +1758,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0 (0, 4.19764209301335e+212)</t>
+          <t>1.03 (0.13, 7.95)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>65537.64999999999</v>
+        <v>1.09</v>
       </c>
       <c r="G6">
-        <v>256</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7">
@@ -1526,25 +1787,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.93 (1.24, 12.51)</t>
+          <t>0 (0, Inf)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.35</v>
+        <v>4098434.51</v>
       </c>
       <c r="G7">
-        <v>0.59</v>
+        <v>2024.46</v>
       </c>
     </row>
     <row r="8">
@@ -1555,12 +1816,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationJunior secondary</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.78 (1.38, 10.36)</t>
+          <t>3.27 (1.3, 8.21)</t>
         </is>
       </c>
       <c r="D8">
@@ -1570,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G8">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9">
@@ -1584,25 +1845,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.37 (0.95, 5.9)</t>
+          <t>4.17 (1.19, 14.68)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="G9">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
@@ -1613,25 +1874,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.42 (1.2, 1.69)</t>
+          <t>3.98 (1.34, 11.82)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="G10">
-        <v>0.09</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1642,25 +1903,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>42.53 (1.38, 1309.94)</t>
+          <t>2.32 (0.89, 6.08)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.06</v>
+        <v>0.24</v>
       </c>
       <c r="G11">
-        <v>1.75</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="12">
@@ -1671,25 +1932,286 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.38 (1.16, 1.65)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.12 (0.84, 1.48)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.44</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
+      </c>
+      <c r="G13">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>46.97 (1.51, 1456.58)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3.07</v>
+      </c>
+      <c r="G14">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>620.26 (0.1, 4015998.86)</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>0.15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>20.05</v>
-      </c>
-      <c r="G12">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>558.12 (0.09, 3649833.32)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>20.09</v>
+      </c>
+      <c r="G15">
         <v>4.48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>monthly_income1000-4999 pula</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.35 (0.3, 6.13)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.7</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.59</v>
+      </c>
+      <c r="G16">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>monthly_income200-499 pula</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.75 (0.13, 4.2)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.74</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.78</v>
+      </c>
+      <c r="G17">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monthly_income500-999 pula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.23 (0.27, 5.72)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.79</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.61</v>
+      </c>
+      <c r="G18">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monthly_income5000-10000 pula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.53 (0.04, 6.3)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.61</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1.6</v>
+      </c>
+      <c r="G19">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monthly_incomeMore than 10000 pula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.95 (0.16, 24.48)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.61</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.67</v>
+      </c>
+      <c r="G20">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.13 (0.27, 4.73)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.87</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.53</v>
+      </c>
+      <c r="G21">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +2221,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1784,17 +2306,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.56 (-2.2, 7.32)</t>
+          <t>2.45 (-2.31, 7.22)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="G3">
         <v>2.43</v>
@@ -1813,7 +2335,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.11 (-1.68, -0.53)</t>
+          <t>-1.17 (-1.76, -0.59)</t>
         </is>
       </c>
       <c r="D4">
@@ -1826,7 +2348,7 @@
         <v>0.09</v>
       </c>
       <c r="G4">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -1842,11 +2364,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.04 (-0.06, -0.02)</t>
+          <t>-0.03 (-0.05, 0)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1866,25 +2388,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.2 (0.34, 2.06)</t>
+          <t>-0.66 (-2.79, 1.46)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.54</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.19</v>
+        <v>1.18</v>
       </c>
       <c r="G6">
-        <v>0.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -1895,25 +2417,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-17.83 (-63335.09, 63299.43)</t>
+          <t>-0.01 (-2.06, 2.03)</t>
         </is>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1043633581.39</v>
+        <v>1.09</v>
       </c>
       <c r="G7">
-        <v>32305.32</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -1924,25 +2446,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.37 (0.21, 2.53)</t>
+          <t>-20.99 (-43353.2, 43311.23)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.35</v>
+        <v>488793609.75</v>
       </c>
       <c r="G8">
-        <v>0.59</v>
+        <v>22108.68</v>
       </c>
     </row>
     <row r="9">
@@ -1953,12 +2475,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationJunior secondary</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.34 (0.33, 2.34)</t>
+          <t>1.18 (0.26, 2.1)</t>
         </is>
       </c>
       <c r="D9">
@@ -1968,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G9">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
@@ -1982,25 +2504,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.86 (-0.06, 1.77)</t>
+          <t>1.43 (0.17, 2.69)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="G10">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="11">
@@ -2011,25 +2533,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.35 (0.18, 0.52)</t>
+          <t>1.39 (0.3, 2.48)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="G11">
-        <v>0.09</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -2040,25 +2562,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.46 (-1.73, 6.65)</t>
+          <t>0.84 (-0.12, 1.8)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.57</v>
+        <v>0.24</v>
       </c>
       <c r="G12">
-        <v>2.14</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="13">
@@ -2069,25 +2591,286 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.32 (0.14, 0.49)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.11 (-0.17, 0.39)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.45</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.02</v>
+      </c>
+      <c r="G14">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2.62 (-1.56, 6.8)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.22</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4.55</v>
+      </c>
+      <c r="G15">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>7.2 (-1.8, 16.21)</t>
-        </is>
-      </c>
-      <c r="D13">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7.04 (-1.95, 16.03)</t>
+        </is>
+      </c>
+      <c r="D16">
         <v>0.12</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>21.1</v>
-      </c>
-      <c r="G13">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>21.04</v>
+      </c>
+      <c r="G16">
         <v>4.59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>monthly_income1000-4999 pula</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.32 (-1.19, 1.83)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.68</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.6</v>
+      </c>
+      <c r="G17">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monthly_income200-499 pula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-0.29 (-2.01, 1.44)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.75</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.77</v>
+      </c>
+      <c r="G18">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monthly_income500-999 pula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.22 (-1.31, 1.76)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.78</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.61</v>
+      </c>
+      <c r="G19">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monthly_income5000-10000 pula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-0.62 (-3.1, 1.86)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.63</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.6</v>
+      </c>
+      <c r="G20">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monthly_incomeMore than 10000 pula</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.68 (-1.85, 3.22)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.6</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.67</v>
+      </c>
+      <c r="G21">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.13 (-1.3, 1.56)</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.86</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.53</v>
+      </c>
+      <c r="G22">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +2880,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2153,7 +2936,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.68 (0.45, 1.04)</t>
+          <t>0.69 (0.45, 1.04)</t>
         </is>
       </c>
       <c r="D2">
@@ -2182,17 +2965,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12.92 (0.11, 1509.33)</t>
+          <t>11.63 (0.1, 1364.11)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="G3">
         <v>2.43</v>
@@ -2211,7 +2994,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.33 (0.19, 0.59)</t>
+          <t>0.31 (0.17, 0.56)</t>
         </is>
       </c>
       <c r="D4">
@@ -2224,7 +3007,7 @@
         <v>0.09</v>
       </c>
       <c r="G4">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -2240,11 +3023,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.96 (0.94, 0.98)</t>
+          <t>0.97 (0.95, 1)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2264,25 +3047,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.32 (1.41, 7.85)</t>
+          <t>0.52 (0.06, 4.31)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.54</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.19</v>
+        <v>1.18</v>
       </c>
       <c r="G6">
-        <v>0.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -2293,25 +3076,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0 (0, Inf)</t>
+          <t>0.99 (0.13, 7.64)</t>
         </is>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1043633581.39</v>
+        <v>1.09</v>
       </c>
       <c r="G7">
-        <v>32305.32</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -2322,25 +3105,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.92 (1.23, 12.5)</t>
+          <t>0 (0, Inf)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.35</v>
+        <v>488793609.75</v>
       </c>
       <c r="G8">
-        <v>0.59</v>
+        <v>22108.68</v>
       </c>
     </row>
     <row r="9">
@@ -2351,12 +3134,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationJunior secondary</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.8 (1.39, 10.41)</t>
+          <t>3.27 (1.3, 8.2)</t>
         </is>
       </c>
       <c r="D9">
@@ -2366,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G9">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
@@ -2380,25 +3163,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.35 (0.95, 5.85)</t>
+          <t>4.19 (1.19, 14.75)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="G10">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="11">
@@ -2409,25 +3192,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.42 (1.2, 1.68)</t>
+          <t>4.01 (1.35, 11.94)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="G11">
-        <v>0.09</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -2438,25 +3221,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11.68 (0.18, 770.29)</t>
+          <t>2.31 (0.88, 6.06)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.57</v>
+        <v>0.24</v>
       </c>
       <c r="G12">
-        <v>2.14</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="13">
@@ -2467,25 +3250,286 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.38 (1.16, 1.64)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.11 (0.84, 1.47)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.45</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.02</v>
+      </c>
+      <c r="G14">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13.72 (0.21, 898.81)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.22</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4.55</v>
+      </c>
+      <c r="G15">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1346.11 (0.17, 10938960.27)</t>
-        </is>
-      </c>
-      <c r="D13">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1143.59 (0.14, 9178093.64)</t>
+        </is>
+      </c>
+      <c r="D16">
         <v>0.12</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>21.1</v>
-      </c>
-      <c r="G13">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>21.04</v>
+      </c>
+      <c r="G16">
         <v>4.59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>monthly_income1000-4999 pula</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1.38 (0.3, 6.24)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.68</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.6</v>
+      </c>
+      <c r="G17">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monthly_income200-499 pula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.75 (0.13, 4.22)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.75</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.77</v>
+      </c>
+      <c r="G18">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monthly_income500-999 pula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.25 (0.27, 5.81)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.78</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.61</v>
+      </c>
+      <c r="G19">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monthly_income5000-10000 pula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.54 (0.05, 6.43)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.63</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.6</v>
+      </c>
+      <c r="G20">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monthly_incomeMore than 10000 pula</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.98 (0.16, 24.94)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.6</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.67</v>
+      </c>
+      <c r="G21">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.14 (0.27, 4.75)</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.86</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.53</v>
+      </c>
+      <c r="G22">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -2543,7 +3587,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T_k:age</t>
+          <t>T_k:prop_began_infected</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2560,7 +3604,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>monthly_income</t>
+          <t>T_k:age</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2577,81 +3621,76 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T_k:monthly_income</t>
+          <t>T_k:education</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>marital_status</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>monthly_income</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T_k:prop_began_infected</t>
+          <t>T_k:monthly_income</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>education</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>alcohol_weekly</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>marital_status</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>prop_began_infected</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>partners_12mos</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>prop_vlsupp</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>prop_male</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>prop_male</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>prop_began_infected</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>partners_12mos</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>monthly_income</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
@@ -2659,28 +3698,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>prop_vlsupp</t>
+          <t>T_k*gender</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>monthly_income</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T_k*gender</t>
+          <t>T_k*age</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T_k*age</t>
+          <t>T_k*monthly_income</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T_k*monthly_income</t>
+          <t>T_k*education</t>
         </is>
       </c>
     </row>
